--- a/프로젝트/파이썬/망령 가입 수강신청/망령 가입 수강신청.xlsx
+++ b/프로젝트/파이썬/망령 가입 수강신청/망령 가입 수강신청.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\망령 가입 수강신청\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worbs\OneDrive\문서\GitHub\enoz_kjg\프로젝트\파이썬\망령 가입 수강신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B30012-6885-4E20-BF0F-E5C748CF57A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F1E55-B99E-4FB0-9446-D712A9E5A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30015" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2D3AEB3F-D40F-435A-A154-0B6F926875F6}</author>
+    <author>tc={F2524C98-BF54-485C-A6C7-74750B9EDC2A}</author>
+    <author>tc={B4578D33-21A3-46BE-94B6-EF2A7C320AE4}</author>
+  </authors>
+  <commentList>
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{2D3AEB3F-D40F-435A-A154-0B6F926875F6}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    몇 명 등록할 것인지 설정</t>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="1" shapeId="0" xr:uid="{F2524C98-BF54-485C-A6C7-74750B9EDC2A}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    랜덤 대기시간의 최소값
+ex) 10분에서 20분사이에 반복하려면
+10x60인 600을 넣어야 함</t>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="2" shapeId="0" xr:uid="{B4578D33-21A3-46BE-94B6-EF2A7C320AE4}">
+      <text>
+        <t xml:space="preserve">[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    랜덤 대기시간의 최소값
+ex) 10분에서 20분사이에 반복하려면
+20x60인 1200을 넣어야 함
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1275">
   <si>
     <t>food</t>
   </si>
@@ -214,12 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경북 포항시 북구 아치로 10</t>
-  </si>
-  <si>
-    <t>경북 포항시 남구 오천읍 남원로 85 2차부영아파트</t>
-  </si>
-  <si>
     <t>119동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,9 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경북 포항시 남구 오천읍 해병로489번길 9</t>
-  </si>
-  <si>
     <t>106동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,9 +639,6 @@
     <t>zombieing</t>
   </si>
   <si>
-    <t>breadcrumbing</t>
-  </si>
-  <si>
     <t>throwdown</t>
   </si>
   <si>
@@ -3945,6 +3974,266 @@
   </si>
   <si>
     <t>도윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breadcrumbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경북</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포항시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오천읍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남원로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 85 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차부영아파트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경북</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포항시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오천읍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해병로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>489</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항중앙초등학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북 포항시 북구 창흥로 67</t>
+  </si>
+  <si>
+    <t>307동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청 사이트 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤시간 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤시간 최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.phswcoding.co.kr/Course/CourseList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4102,12 +4391,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4119,6 +4402,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4141,7 +4430,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="재균 김" id="{D69D5004-7027-4C77-8B58-C1C30987B0E0}" userId="c8b36890551b7133" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4439,12 +4730,31 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="S3" dT="2024-05-11T13:45:41.01" personId="{D69D5004-7027-4C77-8B58-C1C30987B0E0}" id="{2D3AEB3F-D40F-435A-A154-0B6F926875F6}">
+    <text>몇 명 등록할 것인지 설정</text>
+  </threadedComment>
+  <threadedComment ref="S4" dT="2024-05-11T13:45:14.53" personId="{D69D5004-7027-4C77-8B58-C1C30987B0E0}" id="{F2524C98-BF54-485C-A6C7-74750B9EDC2A}">
+    <text>랜덤 대기시간의 최소값
+ex) 10분에서 20분사이에 반복하려면
+10x60인 600을 넣어야 함</text>
+  </threadedComment>
+  <threadedComment ref="S5" dT="2024-05-11T13:45:27.68" personId="{D69D5004-7027-4C77-8B58-C1C30987B0E0}" id="{B4578D33-21A3-46BE-94B6-EF2A7C320AE4}">
+    <text xml:space="preserve">랜덤 대기시간의 최소값
+ex) 10분에서 20분사이에 반복하려면
+20x60인 1200을 넣어야 함
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4468,35 +4778,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>1193</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>1194</v>
+      <c r="F1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>1190</v>
       </c>
       <c r="R1"/>
       <c r="S1" s="2" t="s">
@@ -4510,2460 +4820,2432 @@
       <c r="X1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="S2" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>1274</v>
+      </c>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="S3" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="T3" s="2">
+        <v>5</v>
+      </c>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="T4" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17.25">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="17.25">
-      <c r="A7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="L9" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="17.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.25">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="L14" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="O16" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="O17" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="O19" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>51</v>
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="F32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="F33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="F36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="F37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="F38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="F39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="F40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="F41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="F42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="F43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="F44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="F46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="F47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="F48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="F49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="F50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="F51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="F52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="F53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="F54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="F55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="F56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="F57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="F58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="F59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="L59" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="F60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="F61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="F62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="F63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="F64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="65" spans="6:16">
+      <c r="F65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="66" spans="6:16">
+      <c r="F66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="67" spans="6:16">
+      <c r="F67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="68" spans="6:16">
+      <c r="F68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="69" spans="6:16">
+      <c r="F69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="70" spans="6:16">
+      <c r="F70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="71" spans="6:16">
+      <c r="F71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="72" spans="6:16">
+      <c r="F72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="73" spans="6:16">
+      <c r="F73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="74" spans="6:16">
+      <c r="F74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="75" spans="6:16">
+      <c r="F75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="76" spans="6:16">
+      <c r="F76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="77" spans="6:16">
+      <c r="F77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="P77" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="F32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="F33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="F34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="F35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="F36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="F37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="F38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="F39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="F40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="F41" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="F42" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="F43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="F44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="F45" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="F46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="F47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="F48" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="F49" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="F50" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="F51" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="F52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="F53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="F54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="F55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="F56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="F57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="F58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="F59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="F60" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="F61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="F62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="F63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="F64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="F65" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="F66" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="F67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="F68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="F69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="F70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="F71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="F72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O72" s="1" t="s">
+    </row>
+    <row r="78" spans="6:16">
+      <c r="F78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="P72" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="F73" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="F74" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="F75" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" s="1" t="s">
+      <c r="P78" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="79" spans="6:16">
+      <c r="F79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="F76" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G76" s="1" t="s">
+    </row>
+    <row r="80" spans="6:16">
+      <c r="F80" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="F77" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="F78" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="F79" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="F80" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="81" spans="6:12">
       <c r="F81" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82" spans="6:12">
       <c r="F82" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="6:12">
       <c r="F83" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="84" spans="6:12">
       <c r="F84" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="6:12">
       <c r="F85" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86" spans="6:12">
       <c r="F86" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="6:12">
       <c r="F87" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="6:12">
       <c r="F88" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="89" spans="6:12">
       <c r="F89" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="90" spans="6:12">
       <c r="F90" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="6:12">
       <c r="F91" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G91" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="K91" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="92" spans="6:12">
       <c r="F92" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G92" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="K92" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="6:12">
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="6:12">
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="6:12">
@@ -6971,10 +7253,10 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="96" spans="6:12">
@@ -6982,3286 +7264,3288 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="6:12">
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="98" spans="6:12">
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99" spans="6:12">
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100" spans="6:12">
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101" spans="6:12">
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="102" spans="6:12">
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="6:12">
       <c r="F103" s="1"/>
       <c r="H103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="104" spans="6:12">
       <c r="F104" s="1"/>
       <c r="H104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="6:12">
       <c r="F105" s="1"/>
       <c r="H105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="106" spans="6:12">
       <c r="F106" s="1"/>
       <c r="H106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="107" spans="6:12">
       <c r="F107" s="1"/>
       <c r="H107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="108" spans="6:12">
       <c r="F108" s="1"/>
       <c r="H108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="6:12">
       <c r="F109" s="1"/>
       <c r="H109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110" spans="6:12">
       <c r="F110" s="1"/>
       <c r="H110" s="1"/>
       <c r="K110" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="111" spans="6:12">
       <c r="K111" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="112" spans="6:12">
       <c r="K112" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="113" spans="11:12">
       <c r="K113" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="114" spans="11:12">
       <c r="K114" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="11:12">
       <c r="K115" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="116" spans="11:12">
       <c r="K116" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="117" spans="11:12">
       <c r="K117" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="118" spans="11:12">
       <c r="K118" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="119" spans="11:12">
       <c r="K119" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="11:12">
       <c r="K120" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="11:12">
       <c r="K121" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="11:12">
       <c r="K122" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="11:12">
       <c r="K123" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="11:12">
       <c r="K124" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="125" spans="11:12">
       <c r="K125" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="11:12">
       <c r="K126" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="127" spans="11:12">
       <c r="K127" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="128" spans="11:12">
       <c r="K128" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="129" spans="11:12">
       <c r="K129" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="130" spans="11:12">
       <c r="K130" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="131" spans="11:12">
       <c r="K131" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="132" spans="11:12">
       <c r="K132" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="133" spans="11:12">
       <c r="K133" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="134" spans="11:12">
       <c r="K134" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="135" spans="11:12">
       <c r="K135" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="136" spans="11:12">
       <c r="K136" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="137" spans="11:12">
       <c r="K137" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="138" spans="11:12">
       <c r="K138" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="11:12">
       <c r="K139" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="140" spans="11:12">
       <c r="K140" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="141" spans="11:12">
       <c r="K141" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="142" spans="11:12">
       <c r="K142" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="143" spans="11:12">
       <c r="K143" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" spans="11:12">
       <c r="K144" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="11:12">
       <c r="K145" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="146" spans="11:12">
       <c r="K146" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="147" spans="11:12">
       <c r="K147" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="11:12">
       <c r="K148" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="149" spans="11:12">
       <c r="K149" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="150" spans="11:12">
       <c r="K150" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="151" spans="11:12">
       <c r="K151" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="152" spans="11:12">
       <c r="K152" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="153" spans="11:12">
       <c r="K153" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="154" spans="11:12">
       <c r="K154" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="155" spans="11:12">
       <c r="K155" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="156" spans="11:12">
       <c r="K156" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="157" spans="11:12">
       <c r="K157" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="158" spans="11:12">
       <c r="K158" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="159" spans="11:12">
       <c r="K159" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="160" spans="11:12">
       <c r="K160" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="161" spans="11:12">
       <c r="K161" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="162" spans="11:12">
       <c r="K162" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="163" spans="11:12">
       <c r="K163" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="164" spans="11:12">
       <c r="K164" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="11:12">
       <c r="K165" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="166" spans="11:12">
       <c r="K166" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="167" spans="11:12">
       <c r="K167" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="168" spans="11:12">
       <c r="K168" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="169" spans="11:12">
       <c r="K169" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="170" spans="11:12">
       <c r="K170" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="171" spans="11:12">
       <c r="K171" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="172" spans="11:12">
       <c r="K172" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="173" spans="11:12">
       <c r="K173" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" spans="11:12">
       <c r="K174" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="175" spans="11:12">
       <c r="K175" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="176" spans="11:12">
       <c r="K176" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177" spans="11:12">
       <c r="K177" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="178" spans="11:12">
       <c r="K178" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="11:12">
       <c r="K179" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="180" spans="11:12">
       <c r="K180" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="181" spans="11:12">
       <c r="K181" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="11:12">
       <c r="K182" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="11:12">
       <c r="K183" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="11:12">
       <c r="K184" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="185" spans="11:12">
       <c r="K185" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="186" spans="11:12">
       <c r="K186" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="187" spans="11:12">
       <c r="K187" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="188" spans="11:12">
       <c r="K188" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="189" spans="11:12">
       <c r="K189" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190" spans="11:12">
       <c r="K190" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="191" spans="11:12">
       <c r="K191" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="192" spans="11:12">
       <c r="K192" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="193" spans="11:12">
       <c r="K193" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="194" spans="11:12">
       <c r="K194" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="195" spans="11:12">
       <c r="K195" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="196" spans="11:12">
       <c r="K196" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="197" spans="11:12">
       <c r="K197" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="198" spans="11:12">
       <c r="K198" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="199" spans="11:12">
       <c r="K199" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="200" spans="11:12">
       <c r="K200" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="11:12">
       <c r="K201" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="202" spans="11:12">
       <c r="K202" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="203" spans="11:12">
       <c r="K203" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="204" spans="11:12">
       <c r="K204" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="205" spans="11:12">
       <c r="K205" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="11:12">
       <c r="K206" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="207" spans="11:12">
       <c r="K207" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="208" spans="11:12">
       <c r="K208" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="209" spans="11:12">
       <c r="K209" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="210" spans="11:12">
       <c r="K210" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="211" spans="11:12">
       <c r="K211" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="212" spans="11:12">
       <c r="K212" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="213" spans="11:12">
       <c r="K213" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="214" spans="11:12">
       <c r="K214" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="11:12">
       <c r="K215" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="216" spans="11:12">
       <c r="K216" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="217" spans="11:12">
       <c r="K217" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="218" spans="11:12">
       <c r="K218" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="219" spans="11:12">
       <c r="K219" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="220" spans="11:12">
       <c r="K220" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="221" spans="11:12">
       <c r="K221" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="222" spans="11:12">
       <c r="K222" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="223" spans="11:12">
       <c r="K223" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224" spans="11:12">
       <c r="K224" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="225" spans="11:12">
       <c r="K225" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="226" spans="11:12">
       <c r="K226" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="227" spans="11:12">
       <c r="K227" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="228" spans="11:12">
       <c r="K228" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="229" spans="11:12">
       <c r="K229" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="230" spans="11:12">
       <c r="K230" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="231" spans="11:12">
       <c r="K231" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="232" spans="11:12">
       <c r="K232" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="233" spans="11:12">
       <c r="K233" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="11:12">
       <c r="K234" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="235" spans="11:12">
       <c r="K235" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="236" spans="11:12">
       <c r="K236" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="237" spans="11:12">
       <c r="K237" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="238" spans="11:12">
       <c r="K238" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="239" spans="11:12">
       <c r="K239" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="240" spans="11:12">
       <c r="K240" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="241" spans="11:12">
       <c r="K241" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="242" spans="11:12">
       <c r="K242" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="243" spans="11:12">
       <c r="K243" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="244" spans="11:12">
       <c r="K244" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="245" spans="11:12">
       <c r="K245" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="246" spans="11:12">
       <c r="K246" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="11:12">
       <c r="K247" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="248" spans="11:12">
       <c r="K248" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="249" spans="11:12">
       <c r="K249" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="250" spans="11:12">
       <c r="K250" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="251" spans="11:12">
       <c r="K251" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="252" spans="11:12">
       <c r="K252" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="253" spans="11:12">
       <c r="K253" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="254" spans="11:12">
       <c r="K254" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="255" spans="11:12">
       <c r="K255" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="256" spans="11:12">
       <c r="K256" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="257" spans="11:12">
       <c r="K257" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="258" spans="11:12">
       <c r="K258" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="259" spans="11:12">
       <c r="K259" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="260" spans="11:12">
       <c r="K260" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="261" spans="11:12">
       <c r="K261" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="262" spans="11:12">
       <c r="K262" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="263" spans="11:12">
       <c r="K263" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="264" spans="11:12">
       <c r="K264" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="265" spans="11:12">
       <c r="K265" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="266" spans="11:12">
       <c r="K266" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="267" spans="11:12">
       <c r="K267" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="268" spans="11:12">
       <c r="K268" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="269" spans="11:12">
       <c r="K269" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="270" spans="11:12">
       <c r="K270" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="271" spans="11:12">
       <c r="K271" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="272" spans="11:12">
       <c r="K272" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="273" spans="11:12">
       <c r="K273" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="274" spans="11:12">
       <c r="K274" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="275" spans="11:12">
       <c r="K275" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="276" spans="11:12">
       <c r="K276" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="277" spans="11:12">
       <c r="K277" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="278" spans="11:12">
       <c r="K278" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="279" spans="11:12">
       <c r="K279" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="280" spans="11:12">
       <c r="K280" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="281" spans="11:12">
       <c r="K281" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="282" spans="11:12">
       <c r="K282" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="283" spans="11:12">
       <c r="K283" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="284" spans="11:12">
       <c r="K284" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="285" spans="11:12">
       <c r="K285" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="286" spans="11:12">
       <c r="K286" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="287" spans="11:12">
       <c r="K287" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="288" spans="11:12">
       <c r="K288" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="289" spans="11:12">
       <c r="K289" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="290" spans="11:12">
       <c r="K290" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="291" spans="11:12">
       <c r="K291" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="292" spans="11:12">
       <c r="K292" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="293" spans="11:12">
       <c r="K293" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="294" spans="11:12">
       <c r="K294" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="295" spans="11:12">
       <c r="K295" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="296" spans="11:12">
       <c r="K296" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="297" spans="11:12">
       <c r="K297" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="298" spans="11:12">
       <c r="K298" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="299" spans="11:12">
       <c r="K299" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="300" spans="11:12">
       <c r="K300" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="301" spans="11:12">
       <c r="K301" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="302" spans="11:12">
       <c r="K302" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="303" spans="11:12">
       <c r="K303" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="304" spans="11:12">
       <c r="K304" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="305" spans="11:12">
       <c r="K305" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="306" spans="11:12">
       <c r="K306" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="307" spans="11:12">
       <c r="K307" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="308" spans="11:12">
       <c r="K308" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="309" spans="11:12">
       <c r="K309" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="310" spans="11:12">
       <c r="K310" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="311" spans="11:12">
       <c r="K311" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="312" spans="11:12">
       <c r="K312" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="313" spans="11:12">
       <c r="K313" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="314" spans="11:12">
       <c r="K314" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="315" spans="11:12">
       <c r="K315" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="316" spans="11:12">
       <c r="K316" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="317" spans="11:12">
       <c r="K317" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="318" spans="11:12">
       <c r="K318" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="319" spans="11:12">
       <c r="K319" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="320" spans="11:12">
       <c r="K320" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="321" spans="11:12">
       <c r="K321" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="L321" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="322" spans="11:12">
       <c r="K322" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="323" spans="11:12">
       <c r="K323" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L323" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="324" spans="11:12">
       <c r="K324" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="L324" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="325" spans="11:12">
       <c r="K325" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="326" spans="11:12">
       <c r="K326" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="327" spans="11:12">
       <c r="K327" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="328" spans="11:12">
       <c r="K328" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="329" spans="11:12">
       <c r="K329" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="330" spans="11:12">
       <c r="K330" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="331" spans="11:12">
       <c r="K331" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="L331" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="332" spans="11:12">
       <c r="K332" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L332" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="333" spans="11:12">
       <c r="K333" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="334" spans="11:12">
       <c r="K334" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="L334" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="335" spans="11:12">
       <c r="K335" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="336" spans="11:12">
       <c r="K336" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="337" spans="11:12">
       <c r="K337" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L337" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="338" spans="11:12">
       <c r="K338" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="L338" s="1" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="339" spans="11:12">
       <c r="K339" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="340" spans="11:12">
       <c r="K340" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="341" spans="11:12">
       <c r="K341" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L341" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="342" spans="11:12">
       <c r="K342" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="343" spans="11:12">
       <c r="K343" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="L343" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="344" spans="11:12">
       <c r="K344" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="345" spans="11:12">
       <c r="K345" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="346" spans="11:12">
       <c r="K346" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="347" spans="11:12">
       <c r="K347" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L347" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="348" spans="11:12">
       <c r="K348" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="349" spans="11:12">
       <c r="K349" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="350" spans="11:12">
       <c r="K350" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L350" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="351" spans="11:12">
       <c r="K351" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="L351" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="352" spans="11:12">
       <c r="K352" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="353" spans="11:12">
       <c r="K353" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="L353" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="354" spans="11:12">
       <c r="K354" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="355" spans="11:12">
       <c r="K355" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="L355" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="356" spans="11:12">
       <c r="K356" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L356" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="357" spans="11:12">
       <c r="K357" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="L357" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="358" spans="11:12">
       <c r="K358" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="L358" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="359" spans="11:12">
       <c r="K359" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="L359" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="360" spans="11:12">
       <c r="K360" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="L360" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="361" spans="11:12">
       <c r="K361" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L361" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="362" spans="11:12">
       <c r="K362" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="L362" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="363" spans="11:12">
       <c r="K363" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="L363" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="364" spans="11:12">
       <c r="K364" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="L364" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="365" spans="11:12">
       <c r="K365" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="L365" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="366" spans="11:12">
       <c r="K366" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="L366" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="367" spans="11:12">
       <c r="K367" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L367" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="368" spans="11:12">
       <c r="K368" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="L368" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="369" spans="11:12">
       <c r="K369" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L369" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="370" spans="11:12">
       <c r="K370" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L370" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="371" spans="11:12">
       <c r="K371" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="L371" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="372" spans="11:12">
       <c r="K372" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L372" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="373" spans="11:12">
       <c r="K373" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="L373" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="374" spans="11:12">
       <c r="K374" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L374" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="375" spans="11:12">
       <c r="K375" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="L375" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="376" spans="11:12">
       <c r="K376" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="L376" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="377" spans="11:12">
       <c r="K377" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="L377" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="378" spans="11:12">
       <c r="K378" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="379" spans="11:12">
       <c r="K379" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L379" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="380" spans="11:12">
       <c r="K380" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="381" spans="11:12">
       <c r="K381" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="L381" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="382" spans="11:12">
       <c r="K382" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L382" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="383" spans="11:12">
       <c r="K383" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="L383" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="384" spans="11:12">
       <c r="K384" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="L384" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="385" spans="11:12">
       <c r="K385" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="386" spans="11:12">
       <c r="K386" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="387" spans="11:12">
       <c r="K387" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="L387" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="388" spans="11:12">
       <c r="K388" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="L388" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="389" spans="11:12">
       <c r="K389" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="L389" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="390" spans="11:12">
       <c r="K390" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L390" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="391" spans="11:12">
       <c r="K391" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L391" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="392" spans="11:12">
       <c r="K392" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="L392" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="393" spans="11:12">
       <c r="K393" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="L393" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="394" spans="11:12">
       <c r="K394" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="L394" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="395" spans="11:12">
       <c r="K395" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="L395" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="396" spans="11:12">
       <c r="K396" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L396" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="397" spans="11:12">
       <c r="K397" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L397" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="398" spans="11:12">
       <c r="K398" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="L398" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="399" spans="11:12">
       <c r="K399" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="L399" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="400" spans="11:12">
       <c r="K400" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="L400" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="401" spans="11:12">
       <c r="K401" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="L401" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="402" spans="11:12">
       <c r="K402" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="L402" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="403" spans="11:12">
       <c r="K403" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="L403" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="404" spans="11:12">
       <c r="K404" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="L404" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="405" spans="11:12">
       <c r="K405" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="L405" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="406" spans="11:12">
       <c r="K406" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="407" spans="11:12">
       <c r="K407" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="408" spans="11:12">
       <c r="K408" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L408" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="409" spans="11:12">
       <c r="K409" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="L409" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="410" spans="11:12">
       <c r="K410" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="411" spans="11:12">
       <c r="K411" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="L411" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="412" spans="11:12">
       <c r="K412" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="L412" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="413" spans="11:12">
       <c r="K413" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="L413" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="414" spans="11:12">
       <c r="K414" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="L414" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="415" spans="11:12">
       <c r="K415" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="L415" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="416" spans="11:12">
       <c r="K416" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="L416" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="417" spans="11:12">
       <c r="K417" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="L417" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="418" spans="11:12">
       <c r="K418" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="419" spans="11:12">
       <c r="K419" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="L419" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="420" spans="11:12">
       <c r="K420" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="L420" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="421" spans="11:12">
       <c r="K421" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="L421" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="422" spans="11:12">
       <c r="K422" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="L422" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="423" spans="11:12">
       <c r="K423" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="L423" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="424" spans="11:12">
       <c r="K424" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="L424" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="425" spans="11:12">
       <c r="K425" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="L425" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="426" spans="11:12">
       <c r="K426" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="L426" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="427" spans="11:12">
       <c r="K427" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="L427" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="428" spans="11:12">
       <c r="K428" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="L428" s="1" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="429" spans="11:12">
       <c r="K429" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="L429" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="430" spans="11:12">
       <c r="K430" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="L430" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="431" spans="11:12">
       <c r="K431" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="L431" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="432" spans="11:12">
       <c r="K432" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="L432" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="433" spans="11:12">
       <c r="K433" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="L433" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="434" spans="11:12">
       <c r="K434" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="L434" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="435" spans="11:12">
       <c r="K435" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="L435" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="436" spans="11:12">
       <c r="K436" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="L436" s="1" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="437" spans="11:12">
       <c r="K437" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="L437" s="1" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="438" spans="11:12">
       <c r="K438" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L438" s="1" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="439" spans="11:12">
       <c r="K439" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="L439" s="1" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="440" spans="11:12">
       <c r="K440" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="L440" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="441" spans="11:12">
       <c r="K441" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="L441" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="442" spans="11:12">
       <c r="K442" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="L442" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="443" spans="11:12">
       <c r="K443" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L443" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="444" spans="11:12">
       <c r="K444" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="L444" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="445" spans="11:12">
       <c r="K445" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="L445" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="446" spans="11:12">
       <c r="K446" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="447" spans="11:12">
       <c r="K447" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="L447" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="448" spans="11:12">
       <c r="K448" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L448" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="449" spans="11:12">
       <c r="K449" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="L449" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="450" spans="11:12">
       <c r="K450" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="L450" s="1" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="451" spans="11:12">
       <c r="K451" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="L451" s="1" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="452" spans="11:12">
       <c r="K452" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="L452" s="1" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="453" spans="11:12">
       <c r="K453" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="L453" s="1" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="454" spans="11:12">
       <c r="K454" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="L454" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="455" spans="11:12">
       <c r="K455" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="L455" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="456" spans="11:12">
       <c r="K456" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="L456" s="1" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="457" spans="11:12">
       <c r="K457" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="L457" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="458" spans="11:12">
       <c r="K458" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="L458" s="1" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="459" spans="11:12">
       <c r="K459" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="L459" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="460" spans="11:12">
       <c r="K460" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="L460" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="461" spans="11:12">
       <c r="K461" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L461" s="1" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="462" spans="11:12">
       <c r="K462" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="L462" s="1" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="463" spans="11:12">
       <c r="K463" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="L463" s="1" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="464" spans="11:12">
       <c r="K464" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="L464" s="1" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="465" spans="11:12">
       <c r="K465" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="L465" s="1" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="466" spans="11:12">
       <c r="K466" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="L466" s="1" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="467" spans="11:12">
       <c r="K467" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="L467" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="468" spans="11:12">
       <c r="K468" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="L468" s="1" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="469" spans="11:12">
       <c r="K469" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="L469" s="1" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="470" spans="11:12">
       <c r="K470" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="L470" s="1" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="471" spans="11:12">
       <c r="K471" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="L471" s="1" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="472" spans="11:12">
       <c r="K472" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="L472" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="473" spans="11:12">
       <c r="K473" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="L473" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="474" spans="11:12">
       <c r="K474" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="L474" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="475" spans="11:12">
       <c r="K475" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="L475" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="476" spans="11:12">
       <c r="K476" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L476" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="477" spans="11:12">
       <c r="K477" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="L477" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="478" spans="11:12">
       <c r="K478" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="L478" s="1" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="479" spans="11:12">
       <c r="K479" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="L479" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="480" spans="11:12">
       <c r="K480" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="481" spans="11:12">
       <c r="K481" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L481" s="1" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="482" spans="11:12">
       <c r="K482" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="L482" s="1" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="483" spans="11:12">
       <c r="K483" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="L483" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="484" spans="11:12">
       <c r="K484" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L484" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="485" spans="11:12">
       <c r="K485" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="L485" s="1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="486" spans="11:12">
       <c r="K486" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="L486" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="487" spans="11:12">
       <c r="K487" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="L487" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="488" spans="11:12">
       <c r="K488" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="L488" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="489" spans="11:12">
       <c r="K489" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="L489" s="1" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="490" spans="11:12">
       <c r="K490" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="L490" s="1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="491" spans="11:12">
       <c r="K491" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="L491" s="1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="492" spans="11:12">
       <c r="K492" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="L492" s="1" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="493" spans="11:12">
       <c r="K493" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="L493" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="494" spans="11:12">
       <c r="K494" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="L494" s="1" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="495" spans="11:12">
       <c r="K495" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="L495" s="1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="496" spans="11:12">
       <c r="K496" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="L496" s="1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="497" spans="11:12">
       <c r="K497" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="L497" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="498" spans="11:12">
       <c r="K498" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="L498" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="499" spans="11:12">
       <c r="K499" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="L499" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="500" spans="11:12">
       <c r="K500" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="L500" s="1" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="501" spans="11:12">
       <c r="K501" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="L501" s="1" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="T1" r:id="rId1" xr:uid="{BE047A57-88D6-4807-93B6-25E54B36BD00}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{423C7F2E-CFE8-4D51-846E-52E8F173F2D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/프로젝트/파이썬/망령 가입 수강신청/망령 가입 수강신청.xlsx
+++ b/프로젝트/파이썬/망령 가입 수강신청/망령 가입 수강신청.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worbs\OneDrive\문서\GitHub\enoz_kjg\프로젝트\파이썬\망령 가입 수강신청\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Desktop\망령 가입 수강신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F1E55-B99E-4FB0-9446-D712A9E5A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22D281-4AE5-4215-8CA9-A2D1339D4043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="23850" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4754,7 +4754,7 @@
   <dimension ref="A1:X501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4898,7 +4898,7 @@
         <v>1271</v>
       </c>
       <c r="T3" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
@@ -4940,7 +4940,7 @@
         <v>1272</v>
       </c>
       <c r="T4" s="2">
-        <v>900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -4978,7 +4978,7 @@
         <v>1273</v>
       </c>
       <c r="T5" s="2">
-        <v>1800</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="6" spans="1:24">
